--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -281,6 +281,78 @@
   <si>
     <t>Tuấn</t>
   </si>
+  <si>
+    <t>203.162.69.71,16881</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Không chốt GSM</t>
+  </si>
+  <si>
+    <t>TB hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30011</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>Reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại  FW</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
+  </si>
+  <si>
+    <t>lock 203.162.69.75,21075</t>
+  </si>
+  <si>
+    <t>lock 203.162.69.75,20675</t>
+  </si>
+  <si>
+    <t>lock 203.162.69.18,16885</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Lock 203.162.69.75,20375</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>Mất nguồn, bung via chân connecter</t>
+  </si>
+  <si>
+    <t>câu via, Nâng cấp FW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lock 203.162.69.57,20005</t>
+  </si>
+  <si>
+    <t>30/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -809,6 +881,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,34 +929,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1243,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1199,43 +1274,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1280,58 +1355,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1356,24 +1431,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1382,7 +1457,9 @@
       <c r="B6" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>47</v>
       </c>
@@ -1395,21 +1472,41 @@
       <c r="G6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="H6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1440,7 +1537,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1566,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1595,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1527,7 +1624,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1653,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +1682,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1616,7 +1713,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1742,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1771,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1800,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1919,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,7 +2388,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2355,7 +2452,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,10 +3034,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2969,8 +3066,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2996,8 +3093,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4284,6 +4381,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4294,16 +4401,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4314,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4346,43 +4443,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4427,58 +4524,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4503,24 +4600,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4529,7 +4626,9 @@
       <c r="B6" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -4550,7 +4649,7 @@
       <c r="K6" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="56"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="53"/>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
@@ -4564,7 +4663,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4578,7 +4677,9 @@
       <c r="B7" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -4603,7 +4704,9 @@
       <c r="K7" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="56"/>
+      <c r="L7" s="96" t="s">
+        <v>69</v>
+      </c>
       <c r="M7" s="53" t="s">
         <v>38</v>
       </c>
@@ -4614,12 +4717,16 @@
       <c r="P7" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4631,7 +4738,9 @@
       <c r="B8" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
@@ -4643,11 +4752,19 @@
         <v>70</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>103</v>
+      </c>
       <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="53"/>
+      <c r="K8" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="55"/>
       <c r="O8" s="53" t="s">
         <v>68</v>
@@ -4655,12 +4772,16 @@
       <c r="P8" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4672,7 +4793,9 @@
       <c r="B9" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>44</v>
       </c>
@@ -4686,11 +4809,21 @@
         <v>67</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="I9" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>101</v>
+      </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53" t="s">
         <v>68</v>
@@ -4698,12 +4831,16 @@
       <c r="P9" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4732,7 +4869,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4761,7 +4898,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4790,7 +4927,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4821,7 +4958,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4850,7 +4987,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4866,7 +5003,9 @@
       <c r="F15" s="71"/>
       <c r="G15" s="51"/>
       <c r="H15" s="71"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="J15" s="53"/>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
@@ -4879,7 +5018,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4908,7 +5047,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5027,7 +5166,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,7 +5198,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5336,7 +5475,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5496,7 +5635,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5560,7 +5699,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6142,10 +6281,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6174,8 +6313,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6201,8 +6340,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7489,6 +7628,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7499,16 +7648,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7519,8 +7658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7551,43 +7690,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7632,58 +7771,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7708,24 +7847,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7734,7 +7873,9 @@
       <c r="B6" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -7747,21 +7888,37 @@
       <c r="G6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="53"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="K6" s="53"/>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7775,7 +7932,9 @@
       <c r="B7" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -7789,20 +7948,36 @@
         <v>67</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="62"/>
+      <c r="I7" s="62" t="s">
+        <v>93</v>
+      </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7814,7 +7989,9 @@
       <c r="B8" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>46</v>
       </c>
@@ -7826,20 +8003,36 @@
         <v>67</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="62"/>
+      <c r="I8" s="62" t="s">
+        <v>94</v>
+      </c>
       <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
+      <c r="K8" s="56" t="s">
+        <v>91</v>
+      </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7851,7 +8044,9 @@
       <c r="B9" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
@@ -7864,21 +8059,33 @@
       <c r="G9" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>82</v>
+      </c>
       <c r="L9" s="53"/>
       <c r="M9" s="53"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7890,7 +8097,9 @@
       <c r="B10" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
@@ -7903,21 +8112,33 @@
       <c r="G10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="56"/>
+      <c r="H10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>82</v>
+      </c>
       <c r="L10" s="53"/>
       <c r="M10" s="53"/>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="O10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="51"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7932,7 +8153,7 @@
       <c r="E11" s="52"/>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="71"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="76"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
@@ -7946,7 +8167,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7961,7 +8182,7 @@
       <c r="E12" s="52"/>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="71"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -7975,7 +8196,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7992,7 +8213,7 @@
       <c r="E13" s="52"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="71"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="89"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
@@ -8006,7 +8227,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8035,7 +8256,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8064,7 +8285,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8093,7 +8314,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8276,7 +8497,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8681,7 +8902,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,7 +8966,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9327,10 +9548,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9359,8 +9580,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9386,8 +9607,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10674,6 +10895,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10684,16 +10915,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10736,43 +10957,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10817,58 +11038,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10893,24 +11114,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10936,7 +11157,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10967,7 +11188,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10996,7 +11217,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11025,7 +11246,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11054,7 +11275,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11083,7 +11304,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11112,7 +11333,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11143,7 +11364,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11172,7 +11393,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11201,7 +11422,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11230,7 +11451,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12464,10 +12685,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12496,8 +12717,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12523,8 +12744,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13811,6 +14032,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13821,16 +14052,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -809,6 +809,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,34 +854,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1199,43 +1199,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1280,58 +1280,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1356,24 +1356,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1409,7 +1409,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1440,7 +1440,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1616,7 +1616,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2937,10 +2937,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2969,8 +2969,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2996,8 +2996,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4284,6 +4284,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4294,16 +4304,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4314,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P9"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4346,43 +4346,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4427,58 +4427,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4503,24 +4503,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4564,7 +4564,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4619,7 +4619,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4821,7 +4821,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6142,10 +6142,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6174,8 +6174,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6201,8 +6201,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7489,6 +7489,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7499,16 +7509,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7520,7 +7520,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G10"/>
+      <selection activeCell="B6" sqref="B6:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7551,43 +7551,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7632,58 +7632,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7708,24 +7708,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7761,7 +7761,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7802,7 +7802,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7839,7 +7839,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7917,7 +7917,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7975,7 +7975,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8006,7 +8006,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8093,7 +8093,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9327,10 +9327,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9359,8 +9359,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9386,8 +9386,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10674,6 +10674,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10684,16 +10694,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10704,8 +10704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10736,43 +10736,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10817,58 +10817,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10893,40 +10893,50 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="52">
+        <v>863586032847265</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="56"/>
       <c r="M6" s="53"/>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
@@ -10936,7 +10946,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10947,27 +10957,45 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868183038063868</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="62" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
+      <c r="K7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="56"/>
       <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10976,27 +11004,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="B8" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="52">
+        <v>868183035920615</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="R8" s="51"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11005,27 +11057,39 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="52">
+        <v>868183038493826</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="53"/>
       <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="53"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11034,27 +11098,41 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="52">
+        <v>868183033797601</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="R10" s="51"/>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11063,12 +11141,22 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="52">
+        <v>868345035606367</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H11" s="51"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
@@ -11083,7 +11171,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11092,12 +11180,22 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="52">
+        <v>868345035634435</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H12" s="59"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
@@ -11112,7 +11210,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11123,12 +11221,20 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="52">
+        <v>869627031843840</v>
+      </c>
       <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H13" s="59"/>
       <c r="I13" s="76"/>
       <c r="J13" s="53"/>
@@ -11143,7 +11249,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11152,12 +11258,22 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="B14" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="52">
+        <v>868926033939791</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H14" s="51"/>
       <c r="I14" s="76"/>
       <c r="J14" s="53"/>
@@ -11172,7 +11288,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11181,12 +11297,22 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="B15" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="52">
+        <v>868345035615863</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" s="51"/>
       <c r="I15" s="76"/>
       <c r="J15" s="53"/>
@@ -11201,7 +11327,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11230,7 +11356,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12149,7 +12275,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12213,7 +12339,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12245,7 +12371,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12464,10 +12590,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12496,8 +12622,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12523,8 +12649,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13811,6 +13937,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13821,16 +13957,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -339,12 +339,6 @@
     <t>LE.1.00.---01.180710</t>
   </si>
   <si>
-    <t>Mất nguồn, bung via chân connecter</t>
-  </si>
-  <si>
-    <t>câu via, Nâng cấp FW</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -352,6 +346,21 @@
   </si>
   <si>
     <t>30/11/2020</t>
+  </si>
+  <si>
+    <t>ko chốt GMS, lâu chốt GPS</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, Thay ANTEN GPS</t>
+  </si>
+  <si>
+    <t>Mất nguồn, bung via chân connecter,lâu chốt GPS</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW,</t>
+  </si>
+  <si>
+    <t>câu via, Nâng cấp FW Thay ANTEN GPS</t>
   </si>
 </sst>
 </file>
@@ -884,30 +893,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -929,10 +914,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1274,43 +1283,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1355,58 +1364,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1431,24 +1440,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1458,7 +1467,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>47</v>
@@ -1506,7 +1515,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1537,7 +1546,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1566,7 +1575,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1604,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1624,7 +1633,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1662,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1682,7 +1691,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1713,7 +1722,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1742,7 +1751,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1780,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1800,7 +1809,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3034,10 +3043,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3066,8 +3075,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3093,8 +3102,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4381,6 +4390,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4391,16 +4410,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4411,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4443,43 +4452,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4524,58 +4533,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4600,24 +4609,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4627,7 +4636,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
@@ -4663,7 +4672,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4678,7 +4687,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
@@ -4699,7 +4708,7 @@
         <v>77</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>71</v>
@@ -4708,7 +4717,7 @@
         <v>69</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="N7" s="55"/>
       <c r="O7" s="53" t="s">
@@ -4718,7 +4727,7 @@
         <v>80</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="R7" s="51" t="s">
         <v>24</v>
@@ -4726,7 +4735,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4739,7 +4748,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
@@ -4753,7 +4762,7 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="56" t="s">
@@ -4763,7 +4772,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="53" t="s">
@@ -4781,7 +4790,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4794,7 +4803,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>44</v>
@@ -4813,7 +4822,7 @@
         <v>98</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>99</v>
@@ -4822,7 +4831,7 @@
         <v>69</v>
       </c>
       <c r="M9" s="53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53" t="s">
@@ -4832,7 +4841,7 @@
         <v>80</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="R9" s="51" t="s">
         <v>31</v>
@@ -4840,7 +4849,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4869,7 +4878,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4898,7 +4907,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4927,7 +4936,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4958,7 +4967,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4987,7 +4996,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5004,7 +5013,7 @@
       <c r="G15" s="51"/>
       <c r="H15" s="71"/>
       <c r="I15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="56"/>
@@ -5018,7 +5027,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5047,7 +5056,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5166,7 +5175,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5198,7 +5207,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5230,7 +5239,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6281,10 +6290,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6313,8 +6322,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6340,8 +6349,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7628,6 +7637,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7638,16 +7657,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7658,8 +7667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7690,43 +7699,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7771,58 +7780,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7847,24 +7856,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7874,7 +7883,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
@@ -7918,7 +7927,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7933,7 +7942,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
@@ -7977,7 +7986,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7990,7 +7999,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>46</v>
@@ -8032,7 +8041,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8045,7 +8054,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
@@ -8085,7 +8094,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8098,7 +8107,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
@@ -8138,7 +8147,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8167,7 +8176,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8196,7 +8205,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8227,7 +8236,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8256,7 +8265,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8285,7 +8294,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8314,7 +8323,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9548,10 +9557,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9580,8 +9589,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9607,8 +9616,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10895,6 +10904,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10905,16 +10924,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10957,43 +10966,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -11038,58 +11047,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11114,24 +11123,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11157,7 +11166,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11188,7 +11197,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11217,7 +11226,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11246,7 +11255,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11275,7 +11284,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11304,7 +11313,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11333,7 +11342,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11364,7 +11373,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11393,7 +11402,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11422,7 +11431,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11451,7 +11460,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12685,10 +12694,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12717,8 +12726,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12744,8 +12753,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14032,6 +14041,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14042,16 +14061,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -893,6 +893,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,34 +938,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1283,43 +1283,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="110"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1364,58 +1364,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="112" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="104" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="104" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="104" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="104" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1440,24 +1440,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="104"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1515,7 +1515,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1546,7 +1546,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1722,7 +1722,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3043,10 +3043,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3075,8 +3075,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3102,8 +3102,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4390,6 +4390,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4400,16 +4410,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4420,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4452,43 +4452,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="110"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4533,58 +4533,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="112" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="104" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="104" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="104" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="104" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4609,24 +4609,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="104"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4672,7 +4672,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4735,7 +4735,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4849,7 +4849,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4967,7 +4967,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6290,10 +6290,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6322,8 +6322,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6349,8 +6349,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7637,6 +7637,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7647,16 +7657,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7667,7 +7667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7699,43 +7699,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="110"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7780,58 +7780,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="112" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="104" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="104" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="104" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="104" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7856,24 +7856,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="104"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8176,7 +8176,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8236,7 +8236,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9557,10 +9557,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9589,8 +9589,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9616,8 +9616,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10904,6 +10904,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10914,16 +10924,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10966,43 +10966,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="110"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -11047,58 +11047,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="112" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="104" t="s">
+      <c r="Q4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="104" t="s">
+      <c r="R4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="112" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="104" t="s">
+      <c r="V4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="104" t="s">
+      <c r="W4" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11123,24 +11123,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="104"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11166,7 +11166,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11197,7 +11197,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="106"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11255,7 +11255,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11284,7 +11284,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11313,7 +11313,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="105" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11373,7 +11373,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11402,7 +11402,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11431,7 +11431,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="106"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11460,7 +11460,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12694,10 +12694,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="108">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12726,8 +12726,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12753,8 +12753,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14041,6 +14041,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14051,16 +14061,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Taris HN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,30 +893,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -938,10 +914,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1283,43 +1283,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1364,58 +1364,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1440,24 +1440,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1515,7 +1515,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1546,7 +1546,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1722,7 +1722,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3043,10 +3043,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3075,8 +3075,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3102,8 +3102,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4390,6 +4390,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4400,16 +4410,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4420,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4452,43 +4452,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4533,58 +4533,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4609,24 +4609,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4672,7 +4672,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4735,7 +4735,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4849,7 +4849,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4967,7 +4967,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6290,10 +6290,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6322,8 +6322,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6349,8 +6349,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7637,6 +7637,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7647,16 +7657,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7667,8 +7667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7699,43 +7699,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7780,58 +7780,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7856,24 +7856,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8176,7 +8176,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8236,7 +8236,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9557,10 +9557,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9589,8 +9589,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9616,8 +9616,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10904,6 +10904,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10914,16 +10924,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10934,8 +10934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10966,43 +10966,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -11047,58 +11047,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11123,50 +11123,82 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="102"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="52">
+        <v>863586032847265</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11177,27 +11209,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868183038063868</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="62" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="K7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11206,27 +11264,59 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="52">
+        <v>868183035920615</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11235,27 +11325,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="52">
+        <v>868183038493826</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="62" t="s">
+        <v>101</v>
+      </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>106</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11264,27 +11380,57 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="52">
+        <v>868183033797601</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="I10" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11293,27 +11439,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="52">
+        <v>868345035606367</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="I11" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
+      <c r="O11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11322,27 +11496,55 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="53"/>
+      <c r="B12" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="52">
+        <v>868345035634435</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="62" t="s">
+        <v>93</v>
+      </c>
       <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="K12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11353,27 +11555,53 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="52">
+        <v>869627031843840</v>
+      </c>
       <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="76"/>
+      <c r="G13" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="62" t="s">
+        <v>94</v>
+      </c>
       <c r="J13" s="53"/>
-      <c r="K13" s="56"/>
+      <c r="K13" s="56" t="s">
+        <v>91</v>
+      </c>
       <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="M13" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="55"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11382,27 +11610,57 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="1"/>
+      <c r="B14" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="52">
+        <v>868926033939791</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>82</v>
+      </c>
       <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="56"/>
+      <c r="M14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11411,27 +11669,57 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="56"/>
+      <c r="B15" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="52">
+        <v>868345035615863</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>82</v>
+      </c>
       <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="M15" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="55"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="51"/>
+      <c r="O15" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11460,7 +11748,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11579,7 +11867,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11643,7 +11931,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11888,7 +12176,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12048,7 +12336,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12112,7 +12400,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12379,7 +12667,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12443,7 +12731,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12475,7 +12763,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12694,10 +12982,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="108">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12726,8 +13014,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12753,8 +13041,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14041,6 +14329,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14051,16 +14349,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
